--- a/biology/Histoire de la zoologie et de la botanique/Samuel_Latham_Mitchill/Samuel_Latham_Mitchill.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Samuel_Latham_Mitchill/Samuel_Latham_Mitchill.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Samuel Latham Mitchill est un médecin, un naturaliste, un homme politique, un chimiste et un géologue américain, né le 20 août 1764 à Hempstead et mort le 7 septembre 1831 à Brooklyn.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D’une famille de quakers, c’est son oncle Samuel Latham qui l’initie à la médecine et qui lui finance ses études.
 Il reçoit son doctorat de médecine en 1786 à l’université d’Édimbourg. Après avoir visité l’Europe, il retourne à New York et reçoit un titre de docteur honoraire de l’université Columbia vers 1788. Il commence alors à exercer la médecine et commence des études de droit auprès de Robert Yates, procureur d’État.
@@ -551,7 +565,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1815 : The fishes of New York described and arranged. Trans. Lit. Phil. Soc. N. Y., v. 1 : 355–492, Pls. 1–6.</t>
         </is>
